--- a/PDFTextExtractV2/Main.rvl.xlsx
+++ b/PDFTextExtractV2/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>Flow</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>AssertContains</t>
+  </si>
+  <si>
+    <t>INV-3337</t>
   </si>
 </sst>
 </file>
@@ -784,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16" s="112"/>
     </row>
@@ -815,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
